--- a/Space/622.xlsx
+++ b/Space/622.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_622\Space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4865FD2A-8535-45D3-B69A-610E7FB16A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0DFA2-C711-4190-B3CD-952D80F6CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{7CA15A9D-938E-4073-B80B-9FD89133D2DB}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{7CA15A9D-938E-4073-B80B-9FD89133D2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <t>Neural Net</t>
   </si>
   <si>
-    <t>XGBoost 55 Rounds</t>
-  </si>
-  <si>
-    <t>XGBoost 13 Rounds</t>
-  </si>
-  <si>
     <t>SVM Rad</t>
   </si>
   <si>
     <t>RVM Linear</t>
+  </si>
+  <si>
+    <t>XGBoost Untuned (55 Rounds)</t>
+  </si>
+  <si>
+    <t>XGBoost Tuned (14 Rounds)</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +80,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,159 +433,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2081CF-C064-49F7-A484-12E7DFFCFEC9}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
         <v>0.69227000000000005</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <f>1-B1/2423</f>
+      <c r="E1" s="1">
+        <f>1-C1/2423</f>
         <v>9.4510936855138228E-2</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2423</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>0.77881</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1805</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D9" si="0">1-(B2/2423)</f>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E9" si="0">1-(C2/2423)</f>
         <v>0.25505571605447797</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>0.77975000000000005</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1789</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>0.26165910028889805</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.79</v>
+      </c>
+      <c r="B4">
         <v>0.78793000000000002</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1586</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0.34543953776310354</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>0.79610999999999998</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1084</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0.55262071811803548</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>0.79774999999999996</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1047</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0.56789104416013214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.77</v>
+      </c>
+      <c r="B7">
         <v>0.80149000000000004</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>726</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>0.70037144036318622</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.79</v>
+      </c>
+      <c r="B8">
         <v>0.80242999999999998</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>635</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0.73792818819645067</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
         <v>0.80383000000000004</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>529</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0.78167560874948405</v>
       </c>
+      <c r="K9">
+        <v>0.2072164</v>
+      </c>
+      <c r="L9">
+        <f>1-K9</f>
+        <v>0.79278360000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0.19999939999999999</v>
+      </c>
+      <c r="L10">
+        <f>1-K10</f>
+        <v>0.80000059999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>1-0.01813468</f>
+        <v>0.98186532000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D9">
-    <sortCondition ref="D1:D9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:E9">
+    <sortCondition ref="E1:E9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Space/622.xlsx
+++ b/Space/622.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RStudio\CUNY_622\Space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0DFA2-C711-4190-B3CD-952D80F6CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECE7D10-5CEC-4CF5-87BC-ECE6F040AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9270" xr2:uid="{7CA15A9D-938E-4073-B80B-9FD89133D2DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{7CA15A9D-938E-4073-B80B-9FD89133D2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>LR First Pass</t>
-  </si>
-  <si>
-    <t>LR with features</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SVM poly</t>
   </si>
   <si>
-    <t>Neural Net</t>
-  </si>
-  <si>
     <t>SVM Rad</t>
   </si>
   <si>
@@ -63,6 +51,39 @@
   </si>
   <si>
     <t>XGBoost Tuned (14 Rounds)</t>
+  </si>
+  <si>
+    <t>SVM Rad Lower Sigma</t>
+  </si>
+  <si>
+    <t>SVM Rad Higher Sigma</t>
+  </si>
+  <si>
+    <t>Neural Net (severely limited due to computer power)</t>
+  </si>
+  <si>
+    <t>Accuracy_Kaggle</t>
+  </si>
+  <si>
+    <t>Accuracy_HoldoutSet</t>
+  </si>
+  <si>
+    <t>Position_Kaggle</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Logistic Regression First Pass</t>
+  </si>
+  <si>
+    <t>Logistic Regression with features</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Kaggle Percentile</t>
   </si>
 </sst>
 </file>
@@ -433,202 +454,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2081CF-C064-49F7-A484-12E7DFFCFEC9}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>0.69227000000000005</v>
-      </c>
-      <c r="C1">
-        <v>2194</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <f>1-C1/2423</f>
-        <v>9.4510936855138228E-2</v>
-      </c>
-      <c r="F1">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.8</v>
+      </c>
       <c r="B2">
-        <v>0.77881</v>
+        <v>0.80383000000000004</v>
       </c>
       <c r="C2">
-        <v>1805</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E9" si="0">1-(C2/2423)</f>
-        <v>0.25505571605447797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>1-(C2/2423)</f>
+        <v>0.78167560874948405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.79</v>
+      </c>
       <c r="B3">
-        <v>0.77975000000000005</v>
+        <v>0.80242999999999998</v>
       </c>
       <c r="C3">
-        <v>1789</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <f>1-(C3/2423)</f>
+        <v>0.73792818819645067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="B4">
+        <v>0.80149000000000004</v>
+      </c>
+      <c r="C4">
+        <v>726</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26165910028889805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.79</v>
-      </c>
-      <c r="B4">
-        <v>0.78793000000000002</v>
-      </c>
-      <c r="C4">
-        <v>1586</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34543953776310354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f>1-(C4/2423)</f>
+        <v>0.70037144036318622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.77410000000000001</v>
+      </c>
       <c r="B5">
-        <v>0.79610999999999998</v>
+        <v>0.80032000000000003</v>
       </c>
       <c r="C5">
-        <v>1084</v>
+        <v>943</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55262071811803548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <f>1-(C5/2423)</f>
+        <v>0.61081304168386297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.76690000000000003</v>
+      </c>
       <c r="B6">
-        <v>0.79774999999999996</v>
+        <v>0.79681999999999997</v>
       </c>
       <c r="C6">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f>1-(C6/2423)</f>
+        <v>0.57284358233594723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.78</v>
+      </c>
+      <c r="B7">
+        <v>0.79774999999999996</v>
+      </c>
+      <c r="C7">
+        <v>1047</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>1-(C7/2423)</f>
         <v>0.56789104416013214</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.77</v>
-      </c>
-      <c r="B7">
-        <v>0.80149000000000004</v>
-      </c>
-      <c r="C7">
-        <v>726</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70037144036318622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.78</v>
+      </c>
+      <c r="B8">
+        <v>0.79610999999999998</v>
+      </c>
+      <c r="C8">
+        <v>1084</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>1-(C8/2423)</f>
+        <v>0.55262071811803548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>0.79</v>
       </c>
-      <c r="B8">
-        <v>0.80242999999999998</v>
-      </c>
-      <c r="C8">
-        <v>635</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9">
+        <v>0.78793000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1586</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <f>1-(C9/2423)</f>
+        <v>0.34543953776310354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.78</v>
+      </c>
+      <c r="B10">
+        <v>0.77975000000000005</v>
+      </c>
+      <c r="C10">
+        <v>1789</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <f>1-(C10/2423)</f>
+        <v>0.26165910028889805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.76</v>
+      </c>
+      <c r="B11">
+        <v>0.77881</v>
+      </c>
+      <c r="C11">
+        <v>1805</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73792818819645067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <v>0.80383000000000004</v>
-      </c>
-      <c r="C9">
-        <v>529</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78167560874948405</v>
-      </c>
-      <c r="K9">
-        <v>0.2072164</v>
-      </c>
-      <c r="L9">
-        <f>1-K9</f>
-        <v>0.79278360000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10">
-        <v>0.19999939999999999</v>
-      </c>
-      <c r="L10">
-        <f>1-K10</f>
-        <v>0.80000059999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>1-(C11/2423)</f>
+        <v>0.25505571605447797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.78</v>
+      </c>
+      <c r="B12">
+        <v>0.69227000000000005</v>
+      </c>
+      <c r="C12">
+        <v>2194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <f>1-C12/2423</f>
+        <v>9.4510936855138228E-2</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14">
-        <f>1-0.01813468</f>
-        <v>0.98186532000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K15" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:E9">
-    <sortCondition ref="E1:E9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition descending="1" ref="E2:E12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
